--- a/Zhdant Orbital Stuff.xlsx
+++ b/Zhdant Orbital Stuff.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkaz1\Documents\GitHub\Zdetl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10FACE7B-6811-4AF3-8ECD-2957FC18DE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A37033-27B7-435A-B6B9-C530D7DF3512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21765" yWindow="1200" windowWidth="21600" windowHeight="11100" xr2:uid="{ADF65EEA-B356-454A-B9FA-F4ACDFA2097D}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="2" xr2:uid="{ADF65EEA-B356-454A-B9FA-F4ACDFA2097D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Orbital mechanics" sheetId="1" r:id="rId1"/>
+    <sheet name="Eclipse" sheetId="2" r:id="rId2"/>
+    <sheet name="Climate and Geography" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="79">
   <si>
     <t>Zhdant</t>
   </si>
@@ -95,13 +97,190 @@
   </si>
   <si>
     <t>Diam. Ratio</t>
+  </si>
+  <si>
+    <t>Star</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Luminosity</t>
+  </si>
+  <si>
+    <t>Temp</t>
+  </si>
+  <si>
+    <t>Radius (stellar)</t>
+  </si>
+  <si>
+    <t>Radius (km)</t>
+  </si>
+  <si>
+    <t>Diameter (km)</t>
+  </si>
+  <si>
+    <t>Pliebr</t>
+  </si>
+  <si>
+    <t>K0 V</t>
+  </si>
+  <si>
+    <t>Orbit</t>
+  </si>
+  <si>
+    <t>Dist (AU)</t>
+  </si>
+  <si>
+    <t>Dist (km)</t>
+  </si>
+  <si>
+    <t>Angular dist (km)</t>
+  </si>
+  <si>
+    <t>1 deg of arc</t>
+  </si>
+  <si>
+    <t>Apparent angular size of Pliebr</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>Radius</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Apparent angular size of V.</t>
+  </si>
+  <si>
+    <t>If Viepchakl were the size of Luna at the same distance:</t>
+  </si>
+  <si>
+    <t>UWP Size 2</t>
+  </si>
+  <si>
+    <t>Size of Viepchakl needed for "perfect" solar eclipse as observed on Terra:</t>
+  </si>
+  <si>
+    <t>UWP Size 3</t>
+  </si>
+  <si>
+    <t>Climate and Geography data for Zhdant</t>
+  </si>
+  <si>
+    <t>Admo</t>
+  </si>
+  <si>
+    <t>Hydro</t>
+  </si>
+  <si>
+    <t>Eccentricity</t>
+  </si>
+  <si>
+    <t>Seismic Stress Factor</t>
+  </si>
+  <si>
+    <t>Thin</t>
+  </si>
+  <si>
+    <t>V Thin</t>
+  </si>
+  <si>
+    <t>Lumionsity</t>
+  </si>
+  <si>
+    <t>Orbit Factor</t>
+  </si>
+  <si>
+    <t>Atmospherics:</t>
+  </si>
+  <si>
+    <t>Composition</t>
+  </si>
+  <si>
+    <t>Pressure at Sea Level</t>
+  </si>
+  <si>
+    <t>Energy absorption</t>
+  </si>
+  <si>
+    <t>Greenhouse effect</t>
+  </si>
+  <si>
+    <t>Surface Temp (K)</t>
+  </si>
+  <si>
+    <t>R - L Factor</t>
+  </si>
+  <si>
+    <t>Axial tilt base increase</t>
+  </si>
+  <si>
+    <t>Axial tilt base decrease</t>
+  </si>
+  <si>
+    <t>Daytime + per hour</t>
+  </si>
+  <si>
+    <t>Nighttime - per hour</t>
+  </si>
+  <si>
+    <t>Max increase</t>
+  </si>
+  <si>
+    <t>Max decrease</t>
+  </si>
+  <si>
+    <t>Hydrospherics:</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Tectonic Plates</t>
+  </si>
+  <si>
+    <t>Continents</t>
+  </si>
+  <si>
+    <t>Volcanoes</t>
+  </si>
+  <si>
+    <t>Dleqiats</t>
+  </si>
+  <si>
+    <t>Qiknavra</t>
+  </si>
+  <si>
+    <t>Liquid water</t>
+  </si>
+  <si>
+    <t>O-N mix</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Ave Temp</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>Summer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +313,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -155,11 +341,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -175,6 +362,134 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1706</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>181171</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>643691</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>74097</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Oval 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5235A2A0-A461-4387-B582-86697AF93F62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8717081" y="722191"/>
+          <a:ext cx="640080" cy="618731"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>402415</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>13137</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>450316</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>56177</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Oval 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EED667F0-DE39-4866-AC97-6DA539F7719D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8371030" y="740847"/>
+          <a:ext cx="792756" cy="766940"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -476,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97B383A-7AAF-4127-96D2-F263B922DE87}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -693,4 +1008,705 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB1FAFF5-5E03-4D24-AC5D-82F8B4844F84}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+    <col min="8" max="8" width="28.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2">
+        <v>5.7</v>
+      </c>
+      <c r="D2">
+        <v>0.42</v>
+      </c>
+      <c r="E2">
+        <v>4900</v>
+      </c>
+      <c r="F2">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="G2">
+        <f>695700*F2</f>
+        <v>631695.6</v>
+      </c>
+      <c r="H2">
+        <f>G2*2</f>
+        <v>1263391.2</v>
+      </c>
+      <c r="I2">
+        <v>0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>0.7</v>
+      </c>
+      <c r="D5">
+        <f>150000000*C5</f>
+        <v>105000000</v>
+      </c>
+      <c r="F5">
+        <f>3.14159*D5*2</f>
+        <v>659733900</v>
+      </c>
+      <c r="G5">
+        <f>F5/360</f>
+        <v>1832594.1666666667</v>
+      </c>
+      <c r="H5" s="4">
+        <f>H2/G5</f>
+        <v>0.68940042644466193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>430888</v>
+      </c>
+      <c r="C8">
+        <f>D8/2</f>
+        <v>3240</v>
+      </c>
+      <c r="D8">
+        <v>6480</v>
+      </c>
+      <c r="F8">
+        <f>3.14159*B8*2</f>
+        <v>2707346.8638399998</v>
+      </c>
+      <c r="G8">
+        <f>F8/360</f>
+        <v>7520.4079551111108</v>
+      </c>
+      <c r="H8" s="4">
+        <f>D8/G8</f>
+        <v>0.86165538341520209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11">
+        <v>430888</v>
+      </c>
+      <c r="C11">
+        <f>D11/2</f>
+        <v>1737.5</v>
+      </c>
+      <c r="D11">
+        <v>3475</v>
+      </c>
+      <c r="F11">
+        <f>F8</f>
+        <v>2707346.8638399998</v>
+      </c>
+      <c r="G11">
+        <f>G8</f>
+        <v>7520.4079551111108</v>
+      </c>
+      <c r="H11" s="4">
+        <f>D11/G11</f>
+        <v>0.46207599650738074</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14">
+        <v>430888</v>
+      </c>
+      <c r="C14">
+        <f>D14/2</f>
+        <v>2592</v>
+      </c>
+      <c r="D14">
+        <v>5184</v>
+      </c>
+      <c r="F14">
+        <f>F11</f>
+        <v>2707346.8638399998</v>
+      </c>
+      <c r="G14">
+        <f>G11</f>
+        <v>7520.4079551111108</v>
+      </c>
+      <c r="H14" s="4">
+        <f>D14/G14</f>
+        <v>0.68932430673216161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E550E2EA-BD00-4313-9A6C-F0BDEE09A710}">
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>9720</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3">
+        <v>0.4</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>18</v>
+      </c>
+      <c r="G3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H3">
+        <f>ROUND(1+2+(B4/(E4*64)+0.825/0.7),3)</f>
+        <v>6.48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>6480</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7">
+        <v>0.81</v>
+      </c>
+      <c r="D7">
+        <v>447.04500000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10:F11" si="0">F11+6</f>
+        <v>39.283999999999992</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ref="G10:G12" si="1">F10+$B$17</f>
+        <v>21.283999999999992</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ref="H10:H12" si="2">F10+$B$16</f>
+        <v>50.083999999999989</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11">
+        <v>0.5</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>33.283999999999992</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>15.283999999999992</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>44.083999999999989</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <f>F13+6</f>
+        <v>27.283999999999992</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>9.2839999999999918</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>38.083999999999989</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <f>B14-273</f>
+        <v>21.283999999999992</v>
+      </c>
+      <c r="G13">
+        <f>F13+$B$17</f>
+        <v>3.2839999999999918</v>
+      </c>
+      <c r="H13">
+        <f>F13+$B$16</f>
+        <v>32.083999999999989</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14">
+        <f>ROUND(C7*D7*B12*B13,3)</f>
+        <v>294.28399999999999</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <f>F13-6</f>
+        <v>15.283999999999992</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ref="G14:G20" si="3">F14+$B$17</f>
+        <v>-2.7160000000000082</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ref="H14:H20" si="4">F14+$B$16</f>
+        <v>26.083999999999989</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15">
+        <f>ROUND(C7/SQRT(0.7),3)</f>
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ref="F15:F20" si="5">F14-6</f>
+        <v>9.2839999999999918</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>-8.7160000000000082</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="4"/>
+        <v>20.083999999999989</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16">
+        <f>F3*0.6</f>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="E16">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="5"/>
+        <v>3.2839999999999918</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="3"/>
+        <v>-14.716000000000008</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="4"/>
+        <v>14.083999999999991</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17">
+        <v>-18</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="5"/>
+        <v>-2.7160000000000082</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>-20.716000000000008</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="4"/>
+        <v>8.0839999999999907</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18">
+        <f>0.6*B15</f>
+        <v>0.58079999999999998</v>
+      </c>
+      <c r="E18">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="5"/>
+        <v>-8.7160000000000082</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>-26.716000000000008</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="4"/>
+        <v>2.0839999999999907</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19">
+        <v>-3</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="5"/>
+        <v>-14.716000000000008</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>-32.716000000000008</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="4"/>
+        <v>-3.9160000000000093</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20">
+        <f>B18*15</f>
+        <v>8.7119999999999997</v>
+      </c>
+      <c r="E20">
+        <v>11</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="5"/>
+        <v>-20.716000000000008</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="3"/>
+        <v>-38.716000000000008</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="4"/>
+        <v>-9.9160000000000093</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21">
+        <f>B19*15</f>
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Zhdant Orbital Stuff.xlsx
+++ b/Zhdant Orbital Stuff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkaz1\Documents\GitHub\Zdetl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A37033-27B7-435A-B6B9-C530D7DF3512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C1D791-BFE4-48B6-AA53-A0EFC7633E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="2" xr2:uid="{ADF65EEA-B356-454A-B9FA-F4ACDFA2097D}"/>
+    <workbookView xWindow="28680" yWindow="-11835" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{ADF65EEA-B356-454A-B9FA-F4ACDFA2097D}"/>
   </bookViews>
   <sheets>
     <sheet name="Orbital mechanics" sheetId="1" r:id="rId1"/>
@@ -321,12 +321,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -341,12 +347,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1254,8 +1261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E550E2EA-BD00-4313-9A6C-F0BDEE09A710}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1620,7 +1627,7 @@
       <c r="A20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="5">
         <f>B18*15</f>
         <v>8.7119999999999997</v>
       </c>
@@ -1644,7 +1651,7 @@
       <c r="A21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="5">
         <f>B19*15</f>
         <v>-45</v>
       </c>
